--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF81608C-2114-C64A-B901-463734543391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF45D25-C3A4-3C4B-BE52-CDA9068C884C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1400" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16300" yWindow="460" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Status!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -20223,7 +20224,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20277,16 +20278,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>1003</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>2822</v>
       </c>
     </row>
@@ -20319,16 +20320,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>1004</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>2823</v>
       </c>
     </row>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF45D25-C3A4-3C4B-BE52-CDA9068C884C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F371C2-01C7-514E-A4FC-EA0C53C6E183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="460" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="1380" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -20,11 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Big List of Names'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HUC08_MRB_LUT!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HUC08_MRB_LUT!$A$1:$K$308</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Status!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -9101,10 +9100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A82313-A821-9C41-A6EE-3DE4378C62D7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9157,7 +9157,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2">
         <v>10020001</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3">
         <v>10020002</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4">
         <v>10020003</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5">
         <v>10020004</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6">
         <v>10020005</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7">
         <v>10020006</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8">
         <v>10020007</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9">
         <v>10020008</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10">
         <v>10030101</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11">
         <v>10030102</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12">
         <v>10030103</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13">
         <v>10030104</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14">
         <v>10030105</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15">
         <v>10030201</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16">
         <v>10030202</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>10030203</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>10030204</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19">
         <v>10030205</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>10040101</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>10040102</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22">
         <v>10040103</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23">
         <v>10040104</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24">
         <v>10040105</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>10040106</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>10040201</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27">
         <v>10040202</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28">
         <v>10040203</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29">
         <v>10040204</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30">
         <v>10040205</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31">
         <v>10050001</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32">
         <v>10050002</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33">
         <v>10050003</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34">
         <v>10050004</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35">
         <v>10050005</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36">
         <v>10050006</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37">
         <v>10050007</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38">
         <v>10050008</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39">
         <v>10050009</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40">
         <v>10050010</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41">
         <v>10050011</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42">
         <v>10050012</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>10050013</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44">
         <v>10050014</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45">
         <v>10050015</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46">
         <v>10050016</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47">
         <v>10060001</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48">
         <v>10060002</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49">
         <v>10060003</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50">
         <v>10060004</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51">
         <v>10060005</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52">
         <v>10060006</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53">
         <v>10060007</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54">
         <v>10070001</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55">
         <v>10070002</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56">
         <v>10070003</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57">
         <v>10070004</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58">
         <v>10070005</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59">
         <v>10070006</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60">
         <v>10070007</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61">
         <v>10070008</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62">
         <v>10080001</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63">
         <v>10080002</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64">
         <v>10080003</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65">
         <v>10080004</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66">
         <v>10080005</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67">
         <v>10080006</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68">
         <v>10080007</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69">
         <v>10080008</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70">
         <v>10080009</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71">
         <v>10080010</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72">
         <v>10080011</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73">
         <v>10080012</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74">
         <v>10080013</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75">
         <v>10080014</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76">
         <v>10080015</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77">
         <v>10080016</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78">
         <v>10090101</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79">
         <v>10090102</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80">
         <v>10090201</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81">
         <v>10090202</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82">
         <v>10090203</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83">
         <v>10090204</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84">
         <v>10090205</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85">
         <v>10090206</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86">
         <v>10090207</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87">
         <v>10090208</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88">
         <v>10090209</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89">
         <v>10090210</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90">
         <v>10100001</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91">
         <v>10100002</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92">
         <v>10100003</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93">
         <v>10100004</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94">
         <v>10100005</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95">
         <v>10110101</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96">
         <v>10110102</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97">
         <v>10110201</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98">
         <v>10110202</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99">
         <v>10110203</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100">
         <v>10110204</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101">
         <v>10110205</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118">
         <v>10130101</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119">
         <v>10130102</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120">
         <v>10130103</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121">
         <v>10130104</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122">
         <v>10130105</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123">
         <v>10130106</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124">
         <v>10130201</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125">
         <v>10130202</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126">
         <v>10130203</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127">
         <v>10130204</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128">
         <v>10130205</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129">
         <v>10130206</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130">
         <v>10130301</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131">
         <v>10130302</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132">
         <v>10130303</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133">
         <v>10130304</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134">
         <v>10130305</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135">
         <v>10130306</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136">
         <v>10140101</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137">
         <v>10140102</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138">
         <v>10140103</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139">
         <v>10140104</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140">
         <v>10140105</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141">
         <v>10140201</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142">
         <v>10140202</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143">
         <v>10140203</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144">
         <v>10140204</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145">
         <v>10150001</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146">
         <v>10150002</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147">
         <v>10150003</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148">
         <v>10150004</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149">
         <v>10150005</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150">
         <v>10150006</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151">
         <v>10150007</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152">
         <v>10160001</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153">
         <v>10160002</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154">
         <v>10160003</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155">
         <v>10160004</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156">
         <v>10160005</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157">
         <v>10160006</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158">
         <v>10160007</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159">
         <v>10160008</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160">
         <v>10160009</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161">
         <v>10160011</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162">
         <v>10170101</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163">
         <v>10170102</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164">
         <v>10170103</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165">
         <v>10170201</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166">
         <v>10170202</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167">
         <v>10170203</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168">
         <v>10170204</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169">
         <v>10180001</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170">
         <v>10180002</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171">
         <v>10180003</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172">
         <v>10180004</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173">
         <v>10180005</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174">
         <v>10180006</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175">
         <v>10180007</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176">
         <v>10180008</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177">
         <v>10180009</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178">
         <v>10180010</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179">
         <v>10180011</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180">
         <v>10180012</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181">
         <v>10180013</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182">
         <v>10180014</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201">
         <v>10200101</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202">
         <v>10200102</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203">
         <v>10200103</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204">
         <v>10200201</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205">
         <v>10200202</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206">
         <v>10200203</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207">
         <v>10210001</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208">
         <v>10210002</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209">
         <v>10210003</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210">
         <v>10210004</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211">
         <v>10210005</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212">
         <v>10210006</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213">
         <v>10210007</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214">
         <v>10210008</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215">
         <v>10210009</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216">
         <v>10210010</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217">
         <v>10220001</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218">
         <v>10220002</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219">
         <v>10220003</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220">
         <v>10220004</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221">
         <v>10230001</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222">
         <v>10230002</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223">
         <v>10230003</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224">
         <v>10230004</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225">
         <v>10230005</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226">
         <v>10230006</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227">
         <v>10230007</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228">
         <v>10240001</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229">
         <v>10240002</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230">
         <v>10240003</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231">
         <v>10240004</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232">
         <v>10240005</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233">
         <v>10240006</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234">
         <v>10240007</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235">
         <v>10240008</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236">
         <v>10240009</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237">
         <v>10240010</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238">
         <v>10240011</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239">
         <v>10240012</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240">
         <v>10240013</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241">
         <v>10250001</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242">
         <v>10250002</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243">
         <v>10250003</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244">
         <v>10250004</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245">
         <v>10250005</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246">
         <v>10250006</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247">
         <v>10250007</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248">
         <v>10250008</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249">
         <v>10250009</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250">
         <v>10250010</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251">
         <v>10250011</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252">
         <v>10250012</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253">
         <v>10250013</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254">
         <v>10250014</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255">
         <v>10250015</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256">
         <v>10250016</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257">
         <v>10250017</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258">
         <v>10260001</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259">
         <v>10260002</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260">
         <v>10260003</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261">
         <v>10260004</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262">
         <v>10260005</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263">
         <v>10260006</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264">
         <v>10260007</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265">
         <v>10260008</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266">
         <v>10260009</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267">
         <v>10260010</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268">
         <v>10260011</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269">
         <v>10260012</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270">
         <v>10260013</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271">
         <v>10260014</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272">
         <v>10260015</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273">
         <v>10270101</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274">
         <v>10270102</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275">
         <v>10270103</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276">
         <v>10270104</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277">
         <v>10270201</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278">
         <v>10270202</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279">
         <v>10270203</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280">
         <v>10270204</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281">
         <v>10270205</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282">
         <v>10270206</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283">
         <v>10270207</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284">
         <v>10280101</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285">
         <v>10280102</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286">
         <v>10280103</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287">
         <v>10280201</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288">
         <v>10280202</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289">
         <v>10280203</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290">
         <v>10290101</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291">
         <v>10290102</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292">
         <v>10290103</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293">
         <v>10290104</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294">
         <v>10290105</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295">
         <v>10290106</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296">
         <v>10290107</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297">
         <v>10290108</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298">
         <v>10290109</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299">
         <v>10290110</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300">
         <v>10290111</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301">
         <v>10290201</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302">
         <v>10290202</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303">
         <v>10290203</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304">
         <v>10300101</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305">
         <v>10300102</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306">
         <v>10300103</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307">
         <v>10300104</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308">
         <v>10300200</v>
       </c>
@@ -20210,7 +20210,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
+  <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Cheyenne"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">
       <sortCondition ref="A1:A308"/>
     </sortState>
@@ -20223,8 +20228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEBC63E-A0CE-3342-AC1B-9EB46C2A3634}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F371C2-01C7-514E-A4FC-EA0C53C6E183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7333F9-B169-7F42-B6C5-F2245801EFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="1380" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7998" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="2827">
   <si>
     <t>FID</t>
   </si>
@@ -8557,15 +8557,16 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
       <i/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8637,7 +8638,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8651,11 +8652,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9103,7 +9124,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <selection activeCell="A110" sqref="A110:C111"/>
     </sheetView>
   </sheetViews>
@@ -20228,19 +20249,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEBC63E-A0CE-3342-AC1B-9EB46C2A3634}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>646</v>
       </c>
@@ -20250,195 +20272,195 @@
       <c r="C1" s="5" t="s">
         <v>2819</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>2820</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:4">
       <c r="A2" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
         <v>1017</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="8">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>1904</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4" spans="1:4">
+      <c r="A4" s="11">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="11">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
+        <v>1014</v>
+      </c>
+      <c r="B9" s="9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>1005</v>
+      </c>
+      <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="9">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="9">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19">
-      <c r="A5" s="11">
-        <v>1013</v>
-      </c>
-      <c r="B5" s="11">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19">
-      <c r="A6" s="11">
-        <v>1016</v>
-      </c>
-      <c r="B6" s="11">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19">
-      <c r="A7" s="9">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19">
-      <c r="A8" s="9">
-        <v>1002</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="C11" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19">
-      <c r="A9" s="11">
-        <v>1014</v>
-      </c>
-      <c r="B9" s="11">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19">
-      <c r="A10" s="6">
-        <v>1022</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="19">
-      <c r="A11" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="19">
-      <c r="A12" s="6">
-        <v>1030</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="19">
-      <c r="A13" s="6">
-        <v>1020</v>
-      </c>
-      <c r="B13" s="6">
-        <v>6</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="19">
+        <v>605</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
-        <v>1028</v>
+        <v>1008</v>
       </c>
       <c r="B14" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="19">
+        <v>1898</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1">
       <c r="A15" s="6">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B15" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="19">
+        <v>1085</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>1011</v>
       </c>
@@ -20448,117 +20470,119 @@
       <c r="C16" s="7" t="s">
         <v>1899</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="10">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9">
         <v>1015</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" ht="19">
+      <c r="D17" s="18" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1">
+      <c r="A19" s="6">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
         <v>1023</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B23" s="6">
         <v>7</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>1911</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" ht="19">
-      <c r="A19" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B19" s="6">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="19">
-      <c r="A20" s="6">
-        <v>1021</v>
-      </c>
-      <c r="B20" s="6">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="19">
-      <c r="A21" s="6">
-        <v>1027</v>
-      </c>
-      <c r="B21" s="6">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="19">
-      <c r="A22" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B22" s="6">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="19">
-      <c r="A23" s="6">
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
         <v>1024</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>13</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="19">
-      <c r="A24" s="6">
-        <v>1018</v>
-      </c>
-      <c r="B24" s="6">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="19">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="6">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B25" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="19">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="6">
         <v>1026</v>
       </c>
@@ -20568,58 +20592,62 @@
       <c r="C26" s="7" t="s">
         <v>1912</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="19">
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="6">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="B27" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="19">
+        <v>1101</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="6">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="B28" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="19">
+        <v>1102</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="6">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B29" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="19">
+        <v>1104</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="6">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="B30" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>488</v>
+      </c>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D30" xr:uid="{EC4B316E-9646-BE42-9182-729E939E0326}"/>
+  <autoFilter ref="A1:D30" xr:uid="{EC4B316E-9646-BE42-9182-729E939E0326}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+      <sortCondition ref="D1:D30"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
     <sortCondition ref="D2:D32"/>
     <sortCondition ref="B2:B32"/>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D5B0F-47E5-1548-97E0-2E0CE403185E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0F342-EA59-7949-A688-DAB3152F7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8573,7 +8573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8601,6 +8601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8638,7 +8644,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8675,6 +8681,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20250,7 +20260,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20277,214 +20287,214 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11">
-        <v>1002</v>
-      </c>
-      <c r="B2" s="11">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2820</v>
+      <c r="A2" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B3" s="11">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>2821</v>
+      <c r="A3" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9">
+        <v>1015</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11">
+        <v>1016</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
         <v>1004</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B8" s="11">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>2822</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>1005</v>
-      </c>
-      <c r="B5" s="6">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="6">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="20">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="20">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="6">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="6">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="C9" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>2820</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D10" s="17"/>
+      <c r="A10" s="11">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6">
+        <v>1005</v>
+      </c>
+      <c r="B11" s="6">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>1008</v>
+      </c>
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1">
+      <c r="A15" s="6">
+        <v>1009</v>
+      </c>
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
         <v>1011</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B17" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>1898</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="8">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9">
-        <v>1013</v>
-      </c>
-      <c r="B13" s="9">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9">
-        <v>1014</v>
-      </c>
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1">
-      <c r="A15" s="9">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="9">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="11">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="8">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6">
@@ -20645,7 +20655,7 @@
   </sheetData>
   <autoFilter ref="A1:D30" xr:uid="{EC4B316E-9646-BE42-9182-729E939E0326}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-      <sortCondition ref="A1:A30"/>
+      <sortCondition ref="D1:D30"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0F342-EA59-7949-A688-DAB3152F7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDE5C5-6AF1-DF4C-9D8D-14EA1A9128BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8677,14 +8677,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20260,7 +20260,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20268,7 +20268,7 @@
     <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12" style="18" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -20343,16 +20343,16 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>1015</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>2824</v>
       </c>
     </row>
@@ -20385,16 +20385,16 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>1002</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>1893</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>2820</v>
       </c>
     </row>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDE5C5-6AF1-DF4C-9D8D-14EA1A9128BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D94EC7-7D09-644C-B25F-6C4FB9945BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2780" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="2825">
   <si>
     <t>FID</t>
   </si>
@@ -8500,12 +8500,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Suestada</t>
-  </si>
-  <si>
-    <t>Bora</t>
-  </si>
-  <si>
     <t>Mist</t>
   </si>
   <si>
@@ -8515,10 +8509,10 @@
     <t>Maelstrom</t>
   </si>
   <si>
-    <t>Sundog</t>
-  </si>
-  <si>
     <t xml:space="preserve">cd </t>
+  </si>
+  <si>
+    <t>rcp45</t>
   </si>
 </sst>
 </file>
@@ -8606,7 +8600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8680,11 +8674,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20257,10 +20251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEBC63E-A0CE-3342-AC1B-9EB46C2A3634}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20272,9 +20266,9 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>646</v>
@@ -20286,7 +20280,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
         <v>1012</v>
       </c>
@@ -20300,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>1017</v>
       </c>
@@ -20314,105 +20308,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5">
+      <c r="A4" s="20">
         <v>1003</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="20">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>1079</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20">
+        <v>1016</v>
+      </c>
+      <c r="B5" s="20">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="20">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="11">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>2821</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9">
-        <v>1013</v>
-      </c>
-      <c r="B5" s="9">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11">
+    <row r="8" spans="1:5">
+      <c r="A8" s="11">
         <v>1015</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D8" s="19" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9">
+        <v>1014</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2" t="s">
         <v>2824</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11">
-        <v>1016</v>
-      </c>
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="11">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19">
-        <v>1002</v>
-      </c>
-      <c r="B9" s="19">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11">
-        <v>1014</v>
-      </c>
-      <c r="B10" s="11">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>1005</v>
       </c>
@@ -20424,7 +20419,7 @@
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>1006</v>
       </c>
@@ -20436,7 +20431,7 @@
       </c>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>1007</v>
       </c>
@@ -20448,7 +20443,7 @@
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>1008</v>
       </c>
@@ -20460,7 +20455,7 @@
       </c>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1">
+    <row r="15" spans="1:5" s="10" customFormat="1">
       <c r="A15" s="6">
         <v>1009</v>
       </c>
@@ -20472,7 +20467,7 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
         <v>1010</v>
       </c>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D94EC7-7D09-644C-B25F-6C4FB9945BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC57FAE-CFE5-6D4F-8FC4-595CBD79EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2780" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7996" uniqueCount="2825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="2823">
   <si>
     <t>FID</t>
   </si>
@@ -8500,13 +8500,7 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Mist</t>
-  </si>
-  <si>
     <t>Cyclone</t>
-  </si>
-  <si>
-    <t>Maelstrom</t>
   </si>
   <si>
     <t xml:space="preserve">cd </t>
@@ -8567,7 +8561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8601,6 +8595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8638,7 +8638,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8674,11 +8674,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20254,7 +20258,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20268,7 +20272,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>646</v>
@@ -20309,44 +20313,44 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1003</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>1079</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>1016</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>1002</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>1893</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0</v>
       </c>
     </row>
@@ -20361,35 +20365,35 @@
         <v>1089</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11">
+      <c r="A8" s="21">
         <v>1015</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="21">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="21" t="s">
         <v>1095</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>2822</v>
+      <c r="D8" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11">
+      <c r="A9" s="21">
         <v>1004</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="21">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="21" t="s">
         <v>1080</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>2820</v>
+      <c r="D9" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -20404,7 +20408,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC57FAE-CFE5-6D4F-8FC4-595CBD79EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83028C-5F67-6A4E-9267-1D389DAA2479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2780" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="2825">
   <si>
     <t>FID</t>
   </si>
@@ -8500,7 +8500,13 @@
     <t>Machine</t>
   </si>
   <si>
+    <t>Mist</t>
+  </si>
+  <si>
     <t>Cyclone</t>
+  </si>
+  <si>
+    <t>Maelstrom</t>
   </si>
   <si>
     <t xml:space="preserve">cd </t>
@@ -8561,7 +8567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8604,6 +8610,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8638,7 +8650,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8683,6 +8695,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -20258,7 +20274,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20272,7 +20288,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>646</v>
@@ -20285,215 +20301,217 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="19">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="19">
+        <v>8</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="19">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="21">
+        <v>11</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="6">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>1017</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="C5" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="19">
-        <v>10</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19">
-        <v>1016</v>
-      </c>
-      <c r="B5" s="19">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="C6" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11">
-        <v>1013</v>
-      </c>
-      <c r="B7" s="11">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>2820</v>
-      </c>
+      <c r="C7" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21">
-        <v>1015</v>
-      </c>
-      <c r="B8" s="21">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
+      <c r="A8" s="6">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="6">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21">
-        <v>1004</v>
-      </c>
-      <c r="B9" s="21">
-        <v>11</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
+      <c r="A9" s="24">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="24">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2822</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9">
-        <v>1014</v>
-      </c>
-      <c r="B10" s="9">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D10" s="16"/>
+      <c r="A10" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="2" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="8">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="C12" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="11">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1">
+      <c r="A15" s="21">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="21">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
-        <v>1008</v>
-      </c>
-      <c r="B14" s="6">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1">
-      <c r="A15" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="C15" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>2822</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="A16" s="19">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="19">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <v>1011</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="8">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6">
@@ -20654,7 +20672,7 @@
   </sheetData>
   <autoFilter ref="A1:D30" xr:uid="{EC4B316E-9646-BE42-9182-729E939E0326}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-      <sortCondition ref="D1:D30"/>
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83028C-5F67-6A4E-9267-1D389DAA2479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6687136-4D3E-9B4B-8C36-24249EA2DFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="1760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20271,10 +20271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEBC63E-A0CE-3342-AC1B-9EB46C2A3634}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20420,16 +20420,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="A11" s="24">
         <v>1011</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="24">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="24" t="s">
         <v>1898</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>1017</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>1018</v>
       </c>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" s="10" customFormat="1">
+    <row r="19" spans="1:8" s="10" customFormat="1">
       <c r="A19" s="6">
         <v>1019</v>
       </c>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>1020</v>
       </c>
@@ -20549,7 +20549,7 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>1021</v>
       </c>
@@ -20560,8 +20560,12 @@
         <v>90</v>
       </c>
       <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="H21" s="2">
+        <f>24-18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>1022</v>
       </c>
@@ -20573,7 +20577,7 @@
       </c>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>1023</v>
       </c>
@@ -20585,7 +20589,7 @@
       </c>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>1024</v>
       </c>
@@ -20597,7 +20601,7 @@
       </c>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>1025</v>
       </c>
@@ -20609,7 +20613,7 @@
       </c>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>1026</v>
       </c>
@@ -20621,7 +20625,7 @@
       </c>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>1027</v>
       </c>
@@ -20633,7 +20637,7 @@
       </c>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>1028</v>
       </c>
@@ -20645,7 +20649,7 @@
       </c>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>1029</v>
       </c>
@@ -20657,7 +20661,7 @@
       </c>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>1030</v>
       </c>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6687136-4D3E-9B4B-8C36-24249EA2DFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701B3F4-AAA1-5744-9529-F6322D296FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1760" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="3960" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Big List of Names'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HUC08_MRB_LUT!$A$1:$K$308</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Status!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Status!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="2825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="2827">
   <si>
     <t>FID</t>
   </si>
@@ -8512,7 +8512,13 @@
     <t xml:space="preserve">cd </t>
   </si>
   <si>
-    <t>rcp45</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>sundog</t>
+  </si>
+  <si>
+    <t>suestada</t>
   </si>
 </sst>
 </file>
@@ -20274,7 +20280,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20283,7 +20289,8 @@
     <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="12" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20299,6 +20306,9 @@
       <c r="D1" s="13" t="s">
         <v>2819</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>2824</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19">
@@ -20329,188 +20339,191 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21">
+      <c r="A4" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B4" s="8">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19">
+        <v>1016</v>
+      </c>
+      <c r="B5" s="19">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="11">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24">
+        <v>1009</v>
+      </c>
+      <c r="B8" s="24">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21">
+        <v>1015</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21">
         <v>1004</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B10" s="21">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>1080</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>2820</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>1005</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
         <v>1006</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
         <v>1007</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
         <v>1008</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24">
-        <v>1009</v>
-      </c>
-      <c r="B9" s="24">
-        <v>12</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1">
+      <c r="A15" s="6">
         <v>1010</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="2" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24">
+      <c r="D15" s="17"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24">
         <v>1011</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B16" s="24">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>1898</v>
       </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="8">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11">
-        <v>1013</v>
-      </c>
-      <c r="B13" s="11">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9">
+      <c r="D16" s="25" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9">
         <v>1014</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B17" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1">
-      <c r="A15" s="21">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="21">
-        <v>7</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="19">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="19">
-        <v>10</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="8">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
+      <c r="D17" s="16" t="s">
+        <v>2825</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -20674,9 +20687,9 @@
       <c r="D30" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D30" xr:uid="{EC4B316E-9646-BE42-9182-729E939E0326}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-      <sortCondition ref="A1:A30"/>
+  <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+      <sortCondition ref="D1:D30"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701B3F4-AAA1-5744-9529-F6322D296FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39820ACC-C5AD-C94A-AD71-8A8B9A98B00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="3960" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="2660" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="2830">
   <si>
     <t>FID</t>
   </si>
@@ -8500,9 +8500,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Mist</t>
-  </si>
-  <si>
     <t>Cyclone</t>
   </si>
   <si>
@@ -8519,6 +8516,18 @@
   </si>
   <si>
     <t>suestada</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>graupel</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>bora</t>
   </si>
 </sst>
 </file>
@@ -8656,7 +8665,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8698,9 +8707,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20280,7 +20286,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -20295,7 +20301,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>646</v>
@@ -20307,7 +20313,7 @@
         <v>2819</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20323,6 +20329,9 @@
       <c r="D2" s="20">
         <v>0</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>2826</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19">
@@ -20337,6 +20346,9 @@
       <c r="D3" s="20">
         <v>0</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>2826</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8">
@@ -20381,150 +20393,156 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11">
+      <c r="A7" s="19">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="19">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="23">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="23">
+        <v>7</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
         <v>1013</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B9" s="11">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="23">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>2821</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24">
-        <v>1009</v>
-      </c>
-      <c r="B8" s="24">
-        <v>12</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="21">
+    <row r="12" spans="1:5">
+      <c r="A12" s="21">
         <v>1015</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B12" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>1095</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="21">
-        <v>1004</v>
-      </c>
-      <c r="B10" s="21">
-        <v>11</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="D12" s="22" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="23">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1">
+      <c r="A15" s="9">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
         <v>1005</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B16" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
         <v>1008</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1">
-      <c r="A15" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B15" s="6">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24">
-        <v>1011</v>
-      </c>
-      <c r="B16" s="24">
-        <v>7</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="9">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>2825</v>
-      </c>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39820ACC-C5AD-C94A-AD71-8A8B9A98B00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8757915-F18E-E84A-A7D1-41A23DD77FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2660" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="2830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="2828">
   <si>
     <t>FID</t>
   </si>
@@ -8500,9 +8500,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Cyclone</t>
-  </si>
-  <si>
     <t>Maelstrom</t>
   </si>
   <si>
@@ -8510,9 +8507,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>sundog</t>
   </si>
   <si>
     <t>suestada</t>
@@ -8609,12 +8603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8627,7 +8615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8665,7 +8659,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8679,7 +8673,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8692,13 +8685,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8706,7 +8704,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20286,22 +20284,22 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>646</v>
@@ -20309,45 +20307,45 @@
       <c r="C1" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2819</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>2823</v>
+      <c r="E1" s="11" t="s">
+        <v>2822</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>1002</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>1893</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1003</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -20360,21 +20358,21 @@
       <c r="C4" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>1016</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -20388,135 +20386,133 @@
       <c r="C6" s="8" t="s">
         <v>1903</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>1004</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>1080</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
+        <v>1015</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19">
+        <v>1014</v>
+      </c>
+      <c r="B9" s="19">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25">
         <v>1006</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>2829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11">
+      <c r="D10" s="26" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21">
         <v>1013</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B11" s="21">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C11" s="21" t="s">
         <v>1089</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
         <v>1010</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C12" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="23">
-        <v>12</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21">
-        <v>1015</v>
-      </c>
-      <c r="B12" s="21">
-        <v>7</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>2821</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="14" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="23">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25">
         <v>1007</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B14" s="25">
         <v>8</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="23">
+      <c r="D14" s="26" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1">
+      <c r="A15" s="23">
         <v>1011</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B15" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>1898</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1">
-      <c r="A15" s="9">
-        <v>1014</v>
-      </c>
-      <c r="B15" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>2824</v>
+      <c r="D15" s="24" t="s">
+        <v>2823</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -20530,7 +20526,7 @@
       <c r="C16" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
@@ -20542,7 +20538,7 @@
       <c r="C17" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
@@ -20554,9 +20550,9 @@
       <c r="C18" s="7" t="s">
         <v>1907</v>
       </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1">
       <c r="A19" s="6">
         <v>1019</v>
       </c>
@@ -20566,7 +20562,7 @@
       <c r="C19" s="7" t="s">
         <v>1908</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
@@ -20578,7 +20574,7 @@
       <c r="C20" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -20590,7 +20586,7 @@
       <c r="C21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="15"/>
       <c r="H21" s="2">
         <f>24-18</f>
         <v>6</v>
@@ -20606,7 +20602,7 @@
       <c r="C22" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -20618,7 +20614,7 @@
       <c r="C23" s="7" t="s">
         <v>1910</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -20630,7 +20626,7 @@
       <c r="C24" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6">
@@ -20642,7 +20638,7 @@
       <c r="C25" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6">
@@ -20654,7 +20650,7 @@
       <c r="C26" s="7" t="s">
         <v>1911</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6">
@@ -20666,7 +20662,7 @@
       <c r="C27" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
@@ -20678,7 +20674,7 @@
       <c r="C28" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
@@ -20690,7 +20686,7 @@
       <c r="C29" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
@@ -20702,7 +20698,7 @@
       <c r="C30" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{67E277EF-276B-BB45-8B38-F26333CD85FF}">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4588F269-BD39-0E45-9DE5-6CC0074ECDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9EC9F-4A9F-3C48-94D9-13F9D199A10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="960" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="12600" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -19997,11 +19997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+      <selection activeCell="K277" sqref="K277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20011,6 +20010,7 @@
     <col min="6" max="6" width="33.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1">
@@ -20054,7 +20054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>67</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>237</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>238</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>239</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>240</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>241</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>242</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>304</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>243</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>244</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>245</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>246</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>247</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>248</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>249</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>250</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>251</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>252</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>253</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>254</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>255</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>256</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>257</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>258</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>259</v>
       </c>
@@ -21079,7 +21079,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>260</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>261</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>262</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>263</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>264</v>
       </c>
@@ -21284,7 +21284,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>265</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>266</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>267</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>268</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>269</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>270</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>271</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>272</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>273</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>274</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>275</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>276</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>277</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>278</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>279</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>280</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>281</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>282</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>283</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>284</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>285</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>286</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>13</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>159</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>287</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>288</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>289</v>
       </c>
@@ -22391,7 +22391,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>290</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>160</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>291</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>292</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>129</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>130</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>131</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>132</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>133</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>134</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>135</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>136</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>137</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>161</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>138</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>139</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>140</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>162</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>293</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>305</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>163</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>294</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>141</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>142</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>143</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>144</v>
       </c>
@@ -23457,7 +23457,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>145</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>146</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>306</v>
       </c>
@@ -23580,7 +23580,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>164</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>295</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>296</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>297</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>298</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>299</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>302</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>300</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>0</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>1</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>165</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>301</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>14</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>303</v>
       </c>
@@ -24154,7 +24154,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>2</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>147</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>148</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>149</v>
       </c>
@@ -24318,7 +24318,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>150</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>151</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>65</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>100</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>16</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>66</v>
       </c>
@@ -24564,7 +24564,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>68</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>69</v>
       </c>
@@ -24646,7 +24646,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>70</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>167</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>71</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>101</v>
       </c>
@@ -24810,7 +24810,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>3</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>94</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>4</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>5</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>72</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>95</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>6</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>7</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>8</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>9</v>
       </c>
@@ -25220,7 +25220,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>15</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>10</v>
       </c>
@@ -25302,7 +25302,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>96</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>73</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>74</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>75</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>76</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>77</v>
       </c>
@@ -25548,7 +25548,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>57</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>78</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>79</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>80</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>81</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>58</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>82</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>99</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>83</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>59</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>63</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>17</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>60</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>18</v>
       </c>
@@ -26122,7 +26122,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>61</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>19</v>
       </c>
@@ -26204,7 +26204,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>11</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>12</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>97</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>98</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>84</v>
       </c>
@@ -26409,7 +26409,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>85</v>
       </c>
@@ -26450,7 +26450,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>86</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>87</v>
       </c>
@@ -26532,7 +26532,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>88</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>89</v>
       </c>
@@ -26614,7 +26614,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>62</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>90</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>91</v>
       </c>
@@ -26737,7 +26737,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>92</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>93</v>
       </c>
@@ -26819,7 +26819,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>182</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>176</v>
       </c>
@@ -27475,7 +27475,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>106</v>
       </c>
@@ -27516,7 +27516,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>107</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>108</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>109</v>
       </c>
@@ -27639,7 +27639,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>110</v>
       </c>
@@ -27680,7 +27680,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>111</v>
       </c>
@@ -27721,7 +27721,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>112</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>113</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>127</v>
       </c>
@@ -27844,7 +27844,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>114</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>115</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>116</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>117</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>118</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>128</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>124</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>48</v>
       </c>
@@ -28172,7 +28172,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>49</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>22</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>23</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>24</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>25</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>26</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>27</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>28</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>29</v>
       </c>
@@ -28541,7 +28541,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>30</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>31</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>32</v>
       </c>
@@ -28664,7 +28664,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>33</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>34</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>35</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>36</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>37</v>
       </c>
@@ -28869,7 +28869,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>38</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>39</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>40</v>
       </c>
@@ -28992,7 +28992,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>41</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>180</v>
       </c>
@@ -29074,7 +29074,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1">
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>168</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>169</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1">
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>170</v>
       </c>
@@ -29197,7 +29197,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1">
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>171</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1">
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>181</v>
       </c>
@@ -29279,7 +29279,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1">
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>172</v>
       </c>
@@ -29320,7 +29320,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>51</v>
       </c>
@@ -29361,7 +29361,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1">
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>173</v>
       </c>
@@ -29402,7 +29402,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>174</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1">
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>177</v>
       </c>
@@ -29484,7 +29484,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1">
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>207</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>42</v>
       </c>
@@ -29566,7 +29566,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1">
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>208</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1">
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>52</v>
       </c>
@@ -29648,7 +29648,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>175</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1">
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>229</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1">
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>234</v>
       </c>
@@ -29771,7 +29771,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>230</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1">
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>178</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>119</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>120</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>121</v>
       </c>
@@ -29976,7 +29976,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1">
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>53</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>103</v>
       </c>
@@ -30058,7 +30058,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1">
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>50</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1">
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>102</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>43</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>54</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1">
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>183</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1">
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>209</v>
       </c>
@@ -30304,7 +30304,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>122</v>
       </c>
@@ -30345,7 +30345,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>204</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>55</v>
       </c>
@@ -30427,7 +30427,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1">
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>184</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>210</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>185</v>
       </c>
@@ -30550,7 +30550,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1">
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>186</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>123</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>187</v>
       </c>
@@ -30673,7 +30673,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>205</v>
       </c>
@@ -30714,7 +30714,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1">
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>188</v>
       </c>
@@ -30755,7 +30755,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1">
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>189</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>190</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1">
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>191</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1">
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>192</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>193</v>
       </c>
@@ -30960,7 +30960,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1">
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>194</v>
       </c>
@@ -31001,7 +31001,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1">
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>195</v>
       </c>
@@ -31042,7 +31042,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>196</v>
       </c>
@@ -31083,7 +31083,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>197</v>
       </c>
@@ -31124,7 +31124,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1">
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>198</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1">
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>199</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>200</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1">
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>201</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1">
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>202</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>44</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>45</v>
       </c>
@@ -31411,7 +31411,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1">
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>46</v>
       </c>
@@ -31452,7 +31452,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1">
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>47</v>
       </c>
@@ -31493,7 +31493,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1">
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>211</v>
       </c>
@@ -31534,7 +31534,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1">
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>56</v>
       </c>
@@ -31575,7 +31575,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>212</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1">
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>231</v>
       </c>
@@ -31657,7 +31657,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1">
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>179</v>
       </c>
@@ -31698,7 +31698,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1">
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>232</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1">
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>233</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>213</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>214</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>203</v>
       </c>
@@ -31903,7 +31903,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>104</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>235</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>236</v>
       </c>
@@ -32026,7 +32026,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>215</v>
       </c>
@@ -32067,7 +32067,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1">
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>216</v>
       </c>
@@ -32108,7 +32108,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>217</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>218</v>
       </c>
@@ -32190,7 +32190,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>219</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>220</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>221</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>222</v>
       </c>
@@ -32354,7 +32354,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>223</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>224</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>206</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1">
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>225</v>
       </c>
@@ -32518,7 +32518,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1">
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>226</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>227</v>
       </c>
@@ -32600,7 +32600,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1">
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>228</v>
       </c>
@@ -32643,11 +32643,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M308" xr:uid="{2C1638EE-7F71-1442-9E05-4CCF454B1C53}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="1018"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M308">
       <sortCondition ref="H1:H308"/>
     </sortState>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9EC9F-4A9F-3C48-94D9-13F9D199A10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DBB487-965C-0848-B260-3C446F5AD045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="12600" windowWidth="24360" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1520" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -8874,8 +8874,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:C111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12528,7 +12528,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102">
         <v>10120101</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103">
         <v>10120102</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104">
         <v>10120103</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105">
         <v>10120104</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106">
         <v>10120105</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107">
         <v>10120106</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108">
         <v>10120107</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109">
         <v>10120108</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110">
         <v>10120109</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111">
         <v>10120110</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112">
         <v>10120111</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113">
         <v>10120112</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114">
         <v>10120113</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115">
         <v>10120201</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116">
         <v>10120202</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117">
         <v>10120203</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -19982,9 +19982,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
-    <filterColumn colId="8">
+    <filterColumn colId="7">
       <filters>
-        <filter val="Cheyenne"/>
+        <filter val="1019"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">
@@ -19997,10 +19997,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K277" sqref="K277"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20054,7 +20055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2">
         <v>67</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3">
         <v>237</v>
       </c>
@@ -20136,7 +20137,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4">
         <v>238</v>
       </c>
@@ -20177,7 +20178,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5">
         <v>239</v>
       </c>
@@ -20218,7 +20219,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6">
         <v>240</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7">
         <v>241</v>
       </c>
@@ -20300,7 +20301,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8">
         <v>242</v>
       </c>
@@ -20341,7 +20342,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9">
         <v>304</v>
       </c>
@@ -20382,7 +20383,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10">
         <v>243</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11">
         <v>244</v>
       </c>
@@ -20464,7 +20465,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12">
         <v>245</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13">
         <v>246</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14">
         <v>247</v>
       </c>
@@ -20587,7 +20588,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15">
         <v>248</v>
       </c>
@@ -20628,7 +20629,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16">
         <v>249</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17">
         <v>250</v>
       </c>
@@ -20710,7 +20711,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18">
         <v>251</v>
       </c>
@@ -20751,7 +20752,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19">
         <v>252</v>
       </c>
@@ -20792,7 +20793,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20">
         <v>253</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21">
         <v>254</v>
       </c>
@@ -20874,7 +20875,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22">
         <v>255</v>
       </c>
@@ -20915,7 +20916,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23">
         <v>256</v>
       </c>
@@ -20956,7 +20957,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24">
         <v>257</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25">
         <v>258</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26">
         <v>259</v>
       </c>
@@ -21079,7 +21080,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27">
         <v>260</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28">
         <v>261</v>
       </c>
@@ -21161,7 +21162,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29">
         <v>262</v>
       </c>
@@ -21202,7 +21203,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30">
         <v>263</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31">
         <v>264</v>
       </c>
@@ -21284,7 +21285,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32">
         <v>265</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33">
         <v>266</v>
       </c>
@@ -21366,7 +21367,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34">
         <v>267</v>
       </c>
@@ -21407,7 +21408,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35">
         <v>268</v>
       </c>
@@ -21448,7 +21449,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36">
         <v>269</v>
       </c>
@@ -21489,7 +21490,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37">
         <v>270</v>
       </c>
@@ -21530,7 +21531,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38">
         <v>271</v>
       </c>
@@ -21571,7 +21572,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39">
         <v>272</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40">
         <v>273</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41">
         <v>274</v>
       </c>
@@ -21694,7 +21695,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42">
         <v>275</v>
       </c>
@@ -21735,7 +21736,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43">
         <v>276</v>
       </c>
@@ -21776,7 +21777,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44">
         <v>277</v>
       </c>
@@ -21817,7 +21818,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45">
         <v>278</v>
       </c>
@@ -21858,7 +21859,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46">
         <v>279</v>
       </c>
@@ -21899,7 +21900,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47">
         <v>280</v>
       </c>
@@ -21940,7 +21941,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48">
         <v>281</v>
       </c>
@@ -21981,7 +21982,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49">
         <v>282</v>
       </c>
@@ -22022,7 +22023,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50">
         <v>283</v>
       </c>
@@ -22063,7 +22064,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51">
         <v>284</v>
       </c>
@@ -22104,7 +22105,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52">
         <v>285</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53">
         <v>286</v>
       </c>
@@ -22186,7 +22187,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54">
         <v>13</v>
       </c>
@@ -22227,7 +22228,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55">
         <v>159</v>
       </c>
@@ -22268,7 +22269,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56">
         <v>287</v>
       </c>
@@ -22309,7 +22310,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57">
         <v>288</v>
       </c>
@@ -22350,7 +22351,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58">
         <v>289</v>
       </c>
@@ -22391,7 +22392,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59">
         <v>290</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60">
         <v>160</v>
       </c>
@@ -22473,7 +22474,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61">
         <v>291</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62">
         <v>292</v>
       </c>
@@ -22555,7 +22556,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63">
         <v>129</v>
       </c>
@@ -22596,7 +22597,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64">
         <v>130</v>
       </c>
@@ -22637,7 +22638,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65">
         <v>131</v>
       </c>
@@ -22678,7 +22679,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66">
         <v>132</v>
       </c>
@@ -22719,7 +22720,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67">
         <v>133</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68">
         <v>134</v>
       </c>
@@ -22801,7 +22802,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69">
         <v>135</v>
       </c>
@@ -22842,7 +22843,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70">
         <v>136</v>
       </c>
@@ -22883,7 +22884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71">
         <v>137</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72">
         <v>161</v>
       </c>
@@ -22965,7 +22966,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73">
         <v>138</v>
       </c>
@@ -23006,7 +23007,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74">
         <v>139</v>
       </c>
@@ -23047,7 +23048,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75">
         <v>140</v>
       </c>
@@ -23088,7 +23089,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76">
         <v>162</v>
       </c>
@@ -23129,7 +23130,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77">
         <v>293</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78">
         <v>305</v>
       </c>
@@ -23703,7 +23704,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91">
         <v>297</v>
       </c>
@@ -23744,7 +23745,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92">
         <v>298</v>
       </c>
@@ -23785,7 +23786,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93">
         <v>299</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94">
         <v>302</v>
       </c>
@@ -23867,7 +23868,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95">
         <v>300</v>
       </c>
@@ -23908,7 +23909,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96">
         <v>0</v>
       </c>
@@ -23949,7 +23950,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97">
         <v>1</v>
       </c>
@@ -23990,7 +23991,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98">
         <v>165</v>
       </c>
@@ -24031,7 +24032,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99">
         <v>301</v>
       </c>
@@ -24072,7 +24073,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100">
         <v>14</v>
       </c>
@@ -24113,7 +24114,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101">
         <v>303</v>
       </c>
@@ -24154,7 +24155,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102">
         <v>2</v>
       </c>
@@ -24195,7 +24196,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103">
         <v>147</v>
       </c>
@@ -24236,7 +24237,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104">
         <v>148</v>
       </c>
@@ -24277,7 +24278,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105">
         <v>149</v>
       </c>
@@ -24318,7 +24319,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106">
         <v>150</v>
       </c>
@@ -24359,7 +24360,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107">
         <v>151</v>
       </c>
@@ -24400,7 +24401,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108">
         <v>65</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109">
         <v>100</v>
       </c>
@@ -24482,7 +24483,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110">
         <v>16</v>
       </c>
@@ -24523,7 +24524,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111">
         <v>66</v>
       </c>
@@ -24564,7 +24565,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112">
         <v>68</v>
       </c>
@@ -24605,7 +24606,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113">
         <v>69</v>
       </c>
@@ -24646,7 +24647,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114">
         <v>70</v>
       </c>
@@ -24687,7 +24688,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115">
         <v>167</v>
       </c>
@@ -24728,7 +24729,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116">
         <v>71</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117">
         <v>101</v>
       </c>
@@ -24810,7 +24811,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118">
         <v>3</v>
       </c>
@@ -24851,7 +24852,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119">
         <v>94</v>
       </c>
@@ -24892,7 +24893,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120">
         <v>4</v>
       </c>
@@ -24933,7 +24934,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121">
         <v>5</v>
       </c>
@@ -24974,7 +24975,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122">
         <v>72</v>
       </c>
@@ -25015,7 +25016,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123">
         <v>95</v>
       </c>
@@ -25056,7 +25057,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124">
         <v>6</v>
       </c>
@@ -25097,7 +25098,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125">
         <v>7</v>
       </c>
@@ -25138,7 +25139,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126">
         <v>8</v>
       </c>
@@ -25179,7 +25180,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127">
         <v>9</v>
       </c>
@@ -25220,7 +25221,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128">
         <v>15</v>
       </c>
@@ -25261,7 +25262,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129">
         <v>10</v>
       </c>
@@ -25302,7 +25303,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130">
         <v>96</v>
       </c>
@@ -25343,7 +25344,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131">
         <v>73</v>
       </c>
@@ -25384,7 +25385,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132">
         <v>74</v>
       </c>
@@ -25425,7 +25426,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133">
         <v>75</v>
       </c>
@@ -25466,7 +25467,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134">
         <v>76</v>
       </c>
@@ -25507,7 +25508,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135">
         <v>77</v>
       </c>
@@ -25548,7 +25549,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136">
         <v>57</v>
       </c>
@@ -25589,7 +25590,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137">
         <v>78</v>
       </c>
@@ -25630,7 +25631,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138">
         <v>79</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139">
         <v>80</v>
       </c>
@@ -25712,7 +25713,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140">
         <v>81</v>
       </c>
@@ -25753,7 +25754,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141">
         <v>58</v>
       </c>
@@ -25794,7 +25795,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142">
         <v>82</v>
       </c>
@@ -25835,7 +25836,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143">
         <v>99</v>
       </c>
@@ -25876,7 +25877,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144">
         <v>83</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145">
         <v>59</v>
       </c>
@@ -25958,7 +25959,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146">
         <v>63</v>
       </c>
@@ -25999,7 +26000,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147">
         <v>17</v>
       </c>
@@ -26040,7 +26041,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148">
         <v>60</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149">
         <v>18</v>
       </c>
@@ -26122,7 +26123,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150">
         <v>61</v>
       </c>
@@ -26163,7 +26164,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151">
         <v>19</v>
       </c>
@@ -26204,7 +26205,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152">
         <v>11</v>
       </c>
@@ -26245,7 +26246,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153">
         <v>12</v>
       </c>
@@ -26286,7 +26287,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154">
         <v>97</v>
       </c>
@@ -26327,7 +26328,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155">
         <v>98</v>
       </c>
@@ -26368,7 +26369,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156">
         <v>84</v>
       </c>
@@ -26409,7 +26410,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157">
         <v>85</v>
       </c>
@@ -26450,7 +26451,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158">
         <v>86</v>
       </c>
@@ -26491,7 +26492,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159">
         <v>87</v>
       </c>
@@ -26532,7 +26533,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160">
         <v>88</v>
       </c>
@@ -26573,7 +26574,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161">
         <v>89</v>
       </c>
@@ -26614,7 +26615,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162">
         <v>62</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163">
         <v>90</v>
       </c>
@@ -26696,7 +26697,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164">
         <v>91</v>
       </c>
@@ -26737,7 +26738,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165">
         <v>92</v>
       </c>
@@ -26778,7 +26779,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166">
         <v>93</v>
       </c>
@@ -26819,7 +26820,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167">
         <v>182</v>
       </c>
@@ -26860,7 +26861,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168">
         <v>176</v>
       </c>
@@ -26901,7 +26902,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169">
         <v>105</v>
       </c>
@@ -26942,7 +26943,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170">
         <v>125</v>
       </c>
@@ -26983,7 +26984,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171">
         <v>152</v>
       </c>
@@ -27024,7 +27025,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172">
         <v>153</v>
       </c>
@@ -27065,7 +27066,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173">
         <v>154</v>
       </c>
@@ -27106,7 +27107,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174">
         <v>155</v>
       </c>
@@ -27147,7 +27148,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175">
         <v>156</v>
       </c>
@@ -27188,7 +27189,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176">
         <v>157</v>
       </c>
@@ -27229,7 +27230,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177">
         <v>64</v>
       </c>
@@ -27270,7 +27271,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178">
         <v>126</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179">
         <v>158</v>
       </c>
@@ -27352,7 +27353,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180">
         <v>166</v>
       </c>
@@ -27393,7 +27394,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181">
         <v>20</v>
       </c>
@@ -27434,7 +27435,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182">
         <v>21</v>
       </c>
@@ -27475,7 +27476,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183">
         <v>106</v>
       </c>
@@ -27516,7 +27517,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184">
         <v>107</v>
       </c>
@@ -27557,7 +27558,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185">
         <v>108</v>
       </c>
@@ -27598,7 +27599,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186">
         <v>109</v>
       </c>
@@ -27639,7 +27640,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187">
         <v>110</v>
       </c>
@@ -27680,7 +27681,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188">
         <v>111</v>
       </c>
@@ -27721,7 +27722,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189">
         <v>112</v>
       </c>
@@ -27762,7 +27763,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190">
         <v>113</v>
       </c>
@@ -27803,7 +27804,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191">
         <v>127</v>
       </c>
@@ -27844,7 +27845,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192">
         <v>114</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193">
         <v>115</v>
       </c>
@@ -27926,7 +27927,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194">
         <v>116</v>
       </c>
@@ -27967,7 +27968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195">
         <v>117</v>
       </c>
@@ -28008,7 +28009,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196">
         <v>118</v>
       </c>
@@ -28049,7 +28050,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197">
         <v>128</v>
       </c>
@@ -28090,7 +28091,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198">
         <v>124</v>
       </c>
@@ -28131,7 +28132,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199">
         <v>48</v>
       </c>
@@ -28172,7 +28173,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200">
         <v>49</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201">
         <v>22</v>
       </c>
@@ -28254,7 +28255,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202">
         <v>23</v>
       </c>
@@ -28295,7 +28296,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203">
         <v>24</v>
       </c>
@@ -28336,7 +28337,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204">
         <v>25</v>
       </c>
@@ -28377,7 +28378,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205">
         <v>26</v>
       </c>
@@ -28418,7 +28419,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206">
         <v>27</v>
       </c>
@@ -28459,7 +28460,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207">
         <v>28</v>
       </c>
@@ -28500,7 +28501,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208">
         <v>29</v>
       </c>
@@ -28541,7 +28542,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209">
         <v>30</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210">
         <v>31</v>
       </c>
@@ -28623,7 +28624,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211">
         <v>32</v>
       </c>
@@ -28664,7 +28665,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212">
         <v>33</v>
       </c>
@@ -28705,7 +28706,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213">
         <v>34</v>
       </c>
@@ -28746,7 +28747,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214">
         <v>35</v>
       </c>
@@ -28787,7 +28788,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215">
         <v>36</v>
       </c>
@@ -28828,7 +28829,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216">
         <v>37</v>
       </c>
@@ -28869,7 +28870,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217">
         <v>38</v>
       </c>
@@ -28910,7 +28911,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218">
         <v>39</v>
       </c>
@@ -28951,7 +28952,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219">
         <v>40</v>
       </c>
@@ -28992,7 +28993,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220">
         <v>41</v>
       </c>
@@ -29033,7 +29034,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221">
         <v>180</v>
       </c>
@@ -29074,7 +29075,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222">
         <v>168</v>
       </c>
@@ -29115,7 +29116,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223">
         <v>169</v>
       </c>
@@ -29156,7 +29157,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224">
         <v>170</v>
       </c>
@@ -29197,7 +29198,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225">
         <v>171</v>
       </c>
@@ -29238,7 +29239,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226">
         <v>181</v>
       </c>
@@ -29279,7 +29280,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227">
         <v>172</v>
       </c>
@@ -29320,7 +29321,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228">
         <v>51</v>
       </c>
@@ -29361,7 +29362,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229">
         <v>173</v>
       </c>
@@ -29402,7 +29403,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230">
         <v>174</v>
       </c>
@@ -29443,7 +29444,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231">
         <v>177</v>
       </c>
@@ -29484,7 +29485,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232">
         <v>207</v>
       </c>
@@ -29525,7 +29526,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233">
         <v>42</v>
       </c>
@@ -29566,7 +29567,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234">
         <v>208</v>
       </c>
@@ -29607,7 +29608,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235">
         <v>52</v>
       </c>
@@ -29648,7 +29649,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236">
         <v>175</v>
       </c>
@@ -29689,7 +29690,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237">
         <v>229</v>
       </c>
@@ -29730,7 +29731,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238">
         <v>234</v>
       </c>
@@ -29771,7 +29772,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239">
         <v>230</v>
       </c>
@@ -29812,7 +29813,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240">
         <v>178</v>
       </c>
@@ -29853,7 +29854,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241">
         <v>119</v>
       </c>
@@ -29894,7 +29895,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242">
         <v>120</v>
       </c>
@@ -29935,7 +29936,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243">
         <v>121</v>
       </c>
@@ -29976,7 +29977,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244">
         <v>53</v>
       </c>
@@ -30017,7 +30018,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245">
         <v>103</v>
       </c>
@@ -30058,7 +30059,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246">
         <v>50</v>
       </c>
@@ -30099,7 +30100,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247">
         <v>102</v>
       </c>
@@ -30140,7 +30141,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248">
         <v>43</v>
       </c>
@@ -30181,7 +30182,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249">
         <v>54</v>
       </c>
@@ -30222,7 +30223,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250">
         <v>183</v>
       </c>
@@ -30263,7 +30264,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251">
         <v>209</v>
       </c>
@@ -30304,7 +30305,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252">
         <v>122</v>
       </c>
@@ -30345,7 +30346,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253">
         <v>204</v>
       </c>
@@ -30386,7 +30387,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254">
         <v>55</v>
       </c>
@@ -30427,7 +30428,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255">
         <v>184</v>
       </c>
@@ -30468,7 +30469,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256">
         <v>210</v>
       </c>
@@ -30509,7 +30510,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257">
         <v>185</v>
       </c>
@@ -30550,7 +30551,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258">
         <v>186</v>
       </c>
@@ -30591,7 +30592,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259">
         <v>123</v>
       </c>
@@ -30632,7 +30633,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260">
         <v>187</v>
       </c>
@@ -30673,7 +30674,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261">
         <v>205</v>
       </c>
@@ -30714,7 +30715,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262">
         <v>188</v>
       </c>
@@ -30755,7 +30756,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263">
         <v>189</v>
       </c>
@@ -30796,7 +30797,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264">
         <v>190</v>
       </c>
@@ -30837,7 +30838,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265">
         <v>191</v>
       </c>
@@ -30878,7 +30879,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266">
         <v>192</v>
       </c>
@@ -30919,7 +30920,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267">
         <v>193</v>
       </c>
@@ -30960,7 +30961,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268">
         <v>194</v>
       </c>
@@ -31001,7 +31002,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269">
         <v>195</v>
       </c>
@@ -31042,7 +31043,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270">
         <v>196</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271">
         <v>197</v>
       </c>
@@ -31124,7 +31125,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272">
         <v>198</v>
       </c>
@@ -31165,7 +31166,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273">
         <v>199</v>
       </c>
@@ -31206,7 +31207,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274">
         <v>200</v>
       </c>
@@ -31247,7 +31248,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275">
         <v>201</v>
       </c>
@@ -31288,7 +31289,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276">
         <v>202</v>
       </c>
@@ -31329,7 +31330,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277">
         <v>44</v>
       </c>
@@ -31370,7 +31371,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278">
         <v>45</v>
       </c>
@@ -31411,7 +31412,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279">
         <v>46</v>
       </c>
@@ -31452,7 +31453,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280">
         <v>47</v>
       </c>
@@ -31493,7 +31494,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281">
         <v>211</v>
       </c>
@@ -31534,7 +31535,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282">
         <v>56</v>
       </c>
@@ -31575,7 +31576,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283">
         <v>212</v>
       </c>
@@ -31616,7 +31617,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284">
         <v>231</v>
       </c>
@@ -31657,7 +31658,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285">
         <v>179</v>
       </c>
@@ -31698,7 +31699,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286">
         <v>232</v>
       </c>
@@ -31739,7 +31740,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287">
         <v>233</v>
       </c>
@@ -31780,7 +31781,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288">
         <v>213</v>
       </c>
@@ -31821,7 +31822,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289">
         <v>214</v>
       </c>
@@ -31862,7 +31863,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290">
         <v>203</v>
       </c>
@@ -31903,7 +31904,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291">
         <v>104</v>
       </c>
@@ -31944,7 +31945,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292">
         <v>235</v>
       </c>
@@ -31985,7 +31986,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293">
         <v>236</v>
       </c>
@@ -32026,7 +32027,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294">
         <v>215</v>
       </c>
@@ -32067,7 +32068,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295">
         <v>216</v>
       </c>
@@ -32108,7 +32109,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296">
         <v>217</v>
       </c>
@@ -32149,7 +32150,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297">
         <v>218</v>
       </c>
@@ -32190,7 +32191,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298">
         <v>219</v>
       </c>
@@ -32231,7 +32232,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299">
         <v>220</v>
       </c>
@@ -32272,7 +32273,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300">
         <v>221</v>
       </c>
@@ -32313,7 +32314,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301">
         <v>222</v>
       </c>
@@ -32354,7 +32355,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302">
         <v>223</v>
       </c>
@@ -32395,7 +32396,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303">
         <v>224</v>
       </c>
@@ -32436,7 +32437,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304">
         <v>206</v>
       </c>
@@ -32477,7 +32478,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305">
         <v>225</v>
       </c>
@@ -32518,7 +32519,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306">
         <v>226</v>
       </c>
@@ -32559,7 +32560,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307">
         <v>227</v>
       </c>
@@ -32600,7 +32601,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308">
         <v>228</v>
       </c>
@@ -32643,6 +32644,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M308" xr:uid="{2C1638EE-7F71-1442-9E05-4CCF454B1C53}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="1009"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M308">
       <sortCondition ref="H1:H308"/>
     </sortState>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DBB487-965C-0848-B260-3C446F5AD045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6497562-669C-4842-9F78-EB5087052DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="1520" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8874,8 +8874,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15444,7 +15444,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>10300101</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>10300102</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>10300103</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>10300104</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>10300200</v>
       </c>
@@ -19984,7 +19984,7 @@
   <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
     <filterColumn colId="7">
       <filters>
-        <filter val="1019"/>
+        <filter val="1030"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6497562-669C-4842-9F78-EB5087052DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF493F67-6828-8943-8B5A-FD8EDAF81100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="1520" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8871,11 +8871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A82313-A821-9C41-A6EE-3DE4378C62D7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8928,7 +8927,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10020001</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>10020002</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>10020003</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>10020004</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>10020005</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>10020006</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>10020007</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10020008</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>10030101</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10030102</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10030103</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10030104</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10030105</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>10030201</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>10030202</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>10030203</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10030204</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>10030205</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>10040101</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>10040102</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>10040103</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>10040104</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>10040105</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>10040106</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>10040201</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>10040202</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>10040203</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>10040204</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>10040205</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>10050001</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>10050002</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>10050003</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>10050004</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>10050005</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>10050006</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>10050007</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>10050008</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>10050009</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>10050010</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>10050011</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>10050012</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>10050013</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>10050014</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>10050015</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>10050016</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>10060001</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>10060002</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>10060003</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>10060004</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>10060005</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>10060006</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>10060007</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>10070001</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>10070002</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>10070003</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>10070004</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>10070005</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>10070006</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>10070007</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>10070008</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>10080001</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>10080002</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>10080003</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>10080004</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>10080005</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>10080006</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>10080007</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>10080008</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>10080009</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>10080010</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>10080011</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>10080012</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>10080013</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>10080014</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>10080015</v>
       </c>
@@ -11628,7 +11627,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>10080016</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>10090101</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>10090102</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>10090201</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>10090202</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>10090203</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>10090204</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>10090205</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>10090206</v>
       </c>
@@ -11952,7 +11951,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>10090207</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>10090208</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>10090209</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>10090210</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>10100001</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>10100002</v>
       </c>
@@ -12168,7 +12167,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>10100003</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>10100004</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>10100005</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>10110101</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>10110102</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>10110201</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>10110202</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>10110203</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>10110204</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>10110205</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>10120101</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>10120102</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>10120103</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>10120104</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>10120105</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>10120106</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>10120107</v>
       </c>
@@ -12780,7 +12779,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>10120108</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>10120109</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>10120110</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>10120111</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>10120112</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>10120113</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>10120201</v>
       </c>
@@ -13032,7 +13031,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>10120202</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>10120203</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>10130101</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>10130102</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>10130103</v>
       </c>
@@ -13212,7 +13211,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>10130104</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>10130105</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>10130106</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>10130201</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>10130202</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>10130203</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>10130204</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>10130205</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>10130206</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>10130301</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>10130302</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>10130303</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>10130304</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>10130305</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>10130306</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>10140101</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>10140102</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>10140103</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>10140104</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>10140105</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>10140201</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>10140202</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>10140203</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>10140204</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>10150001</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>10150002</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>10150003</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>10150004</v>
       </c>
@@ -14220,7 +14219,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>10150005</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>10150006</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>10150007</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>10160001</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>10160002</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>10160003</v>
       </c>
@@ -14436,7 +14435,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>10160004</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>10160005</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>10160006</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>10160007</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>10160008</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>10160009</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>10160011</v>
       </c>
@@ -14688,7 +14687,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>10170101</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>10170102</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>10170103</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>10170201</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>10170202</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>10170203</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>10170204</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>10180001</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>10180002</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>10180003</v>
       </c>
@@ -15048,7 +15047,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>10180004</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>10180005</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>10180006</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>10180007</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>10180008</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>10180009</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>10180010</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>10180011</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>10180012</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>10180013</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>10180014</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15588,7 +15587,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16020,7 +16019,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -16092,7 +16091,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>10200101</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>10200102</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>10200103</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>10200201</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>10200202</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>10200203</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>10210001</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>10210002</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>10210003</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>10210004</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>10210005</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>10210006</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11">
       <c r="A213">
         <v>10210007</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11">
       <c r="A214">
         <v>10210008</v>
       </c>
@@ -16596,7 +16595,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>10210009</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>10210010</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11">
       <c r="A217">
         <v>10220001</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>10220002</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11">
       <c r="A219">
         <v>10220003</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>10220004</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>10230001</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11">
       <c r="A222">
         <v>10230002</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11">
       <c r="A223">
         <v>10230003</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>10230004</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>10230005</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>10230006</v>
       </c>
@@ -17028,7 +17027,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>10230007</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>10240001</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>10240002</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>10240003</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231">
         <v>10240004</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>10240005</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>10240006</v>
       </c>
@@ -17280,7 +17279,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>10240007</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>10240008</v>
       </c>
@@ -17352,7 +17351,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>10240009</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>10240010</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>10240011</v>
       </c>
@@ -17460,7 +17459,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>10240012</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>10240013</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>10250001</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>10250002</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>10250003</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>10250004</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>10250005</v>
       </c>
@@ -17712,7 +17711,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>10250006</v>
       </c>
@@ -17748,7 +17747,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>10250007</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>10250008</v>
       </c>
@@ -17820,7 +17819,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>10250009</v>
       </c>
@@ -17856,7 +17855,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>10250010</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>10250011</v>
       </c>
@@ -17928,7 +17927,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>10250012</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>10250013</v>
       </c>
@@ -18000,7 +17999,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>10250014</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>10250015</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>10250016</v>
       </c>
@@ -18108,7 +18107,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>10250017</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>10260001</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>10260002</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>10260003</v>
       </c>
@@ -18252,7 +18251,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>10260004</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>10260005</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>10260006</v>
       </c>
@@ -18360,7 +18359,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>10260007</v>
       </c>
@@ -18396,7 +18395,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>10260008</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>10260009</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>10260010</v>
       </c>
@@ -18504,7 +18503,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>10260011</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>10260012</v>
       </c>
@@ -18576,7 +18575,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>10260013</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>10260014</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>10260015</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>10270101</v>
       </c>
@@ -18720,7 +18719,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>10270102</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>10270103</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>10270104</v>
       </c>
@@ -18828,7 +18827,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>10270201</v>
       </c>
@@ -18864,7 +18863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>10270202</v>
       </c>
@@ -18900,7 +18899,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>10270203</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>10270204</v>
       </c>
@@ -18972,7 +18971,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>10270205</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>10270206</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>10270207</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>10280101</v>
       </c>
@@ -19116,7 +19115,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>10280102</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>10280103</v>
       </c>
@@ -19188,7 +19187,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>10280201</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>10280202</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>10280203</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1">
+    <row r="290" spans="1:11">
       <c r="A290">
         <v>10290101</v>
       </c>
@@ -19332,7 +19331,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11">
       <c r="A291">
         <v>10290102</v>
       </c>
@@ -19368,7 +19367,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11">
       <c r="A292">
         <v>10290103</v>
       </c>
@@ -19404,7 +19403,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1">
+    <row r="293" spans="1:11">
       <c r="A293">
         <v>10290104</v>
       </c>
@@ -19440,7 +19439,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>10290105</v>
       </c>
@@ -19476,7 +19475,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1">
+    <row r="295" spans="1:11">
       <c r="A295">
         <v>10290106</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>10290107</v>
       </c>
@@ -19548,7 +19547,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1">
+    <row r="297" spans="1:11">
       <c r="A297">
         <v>10290108</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1">
+    <row r="298" spans="1:11">
       <c r="A298">
         <v>10290109</v>
       </c>
@@ -19620,7 +19619,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>10290110</v>
       </c>
@@ -19656,7 +19655,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>10290111</v>
       </c>
@@ -19692,7 +19691,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1">
+    <row r="301" spans="1:11">
       <c r="A301">
         <v>10290201</v>
       </c>
@@ -19728,7 +19727,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1">
+    <row r="302" spans="1:11">
       <c r="A302">
         <v>10290202</v>
       </c>
@@ -19764,7 +19763,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>10290203</v>
       </c>
@@ -19982,12 +19981,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1030"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A241:K257">
       <sortCondition ref="A1:A308"/>
     </sortState>
   </autoFilter>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF493F67-6828-8943-8B5A-FD8EDAF81100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6E493-DED5-9849-99A6-507C2BCE7EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="1520" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8871,10 +8871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A82313-A821-9C41-A6EE-3DE4378C62D7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8927,7 +8928,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2">
         <v>10020001</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3">
         <v>10020002</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4">
         <v>10020003</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5">
         <v>10020004</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6">
         <v>10020005</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7">
         <v>10020006</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8">
         <v>10020007</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9">
         <v>10020008</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10">
         <v>10030101</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11">
         <v>10030102</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12">
         <v>10030103</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13">
         <v>10030104</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14">
         <v>10030105</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15">
         <v>10030201</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16">
         <v>10030202</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17">
         <v>10030203</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18">
         <v>10030204</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19">
         <v>10030205</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20">
         <v>10040101</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21">
         <v>10040102</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22">
         <v>10040103</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23">
         <v>10040104</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24">
         <v>10040105</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25">
         <v>10040106</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26">
         <v>10040201</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27">
         <v>10040202</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28">
         <v>10040203</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29">
         <v>10040204</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30">
         <v>10040205</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31">
         <v>10050001</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32">
         <v>10050002</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33">
         <v>10050003</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34">
         <v>10050004</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35">
         <v>10050005</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36">
         <v>10050006</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37">
         <v>10050007</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38">
         <v>10050008</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39">
         <v>10050009</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40">
         <v>10050010</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41">
         <v>10050011</v>
       </c>
@@ -10367,7 +10368,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42">
         <v>10050012</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43">
         <v>10050013</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44">
         <v>10050014</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45">
         <v>10050015</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46">
         <v>10050016</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47">
         <v>10060001</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48">
         <v>10060002</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49">
         <v>10060003</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50">
         <v>10060004</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51">
         <v>10060005</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52">
         <v>10060006</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53">
         <v>10060007</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54">
         <v>10070001</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55">
         <v>10070002</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56">
         <v>10070003</v>
       </c>
@@ -10907,7 +10908,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57">
         <v>10070004</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58">
         <v>10070005</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59">
         <v>10070006</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60">
         <v>10070007</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61">
         <v>10070008</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62">
         <v>10080001</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63">
         <v>10080002</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64">
         <v>10080003</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65">
         <v>10080004</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66">
         <v>10080005</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67">
         <v>10080006</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68">
         <v>10080007</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69">
         <v>10080008</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70">
         <v>10080009</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71">
         <v>10080010</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72">
         <v>10080011</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73">
         <v>10080012</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74">
         <v>10080013</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75">
         <v>10080014</v>
       </c>
@@ -11591,7 +11592,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76">
         <v>10080015</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77">
         <v>10080016</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78">
         <v>10090101</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79">
         <v>10090102</v>
       </c>
@@ -11735,7 +11736,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80">
         <v>10090201</v>
       </c>
@@ -11771,7 +11772,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81">
         <v>10090202</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82">
         <v>10090203</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83">
         <v>10090204</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84">
         <v>10090205</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85">
         <v>10090206</v>
       </c>
@@ -11951,7 +11952,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86">
         <v>10090207</v>
       </c>
@@ -11987,7 +11988,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87">
         <v>10090208</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88">
         <v>10090209</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89">
         <v>10090210</v>
       </c>
@@ -12095,7 +12096,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90">
         <v>10100001</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91">
         <v>10100002</v>
       </c>
@@ -12167,7 +12168,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92">
         <v>10100003</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93">
         <v>10100004</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94">
         <v>10100005</v>
       </c>
@@ -12275,7 +12276,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95">
         <v>10110101</v>
       </c>
@@ -12311,7 +12312,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96">
         <v>10110102</v>
       </c>
@@ -12347,7 +12348,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97">
         <v>10110201</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98">
         <v>10110202</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99">
         <v>10110203</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100">
         <v>10110204</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101">
         <v>10110205</v>
       </c>
@@ -12527,7 +12528,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102">
         <v>10120101</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103">
         <v>10120102</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104">
         <v>10120103</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105">
         <v>10120104</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106">
         <v>10120105</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107">
         <v>10120106</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108">
         <v>10120107</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109">
         <v>10120108</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110">
         <v>10120109</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111">
         <v>10120110</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112">
         <v>10120111</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113">
         <v>10120112</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114">
         <v>10120113</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115">
         <v>10120201</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116">
         <v>10120202</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117">
         <v>10120203</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118">
         <v>10130101</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119">
         <v>10130102</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120">
         <v>10130103</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121">
         <v>10130104</v>
       </c>
@@ -13247,7 +13248,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122">
         <v>10130105</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123">
         <v>10130106</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124">
         <v>10130201</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125">
         <v>10130202</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126">
         <v>10130203</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127">
         <v>10130204</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128">
         <v>10130205</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129">
         <v>10130206</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130">
         <v>10130301</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131">
         <v>10130302</v>
       </c>
@@ -13607,7 +13608,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132">
         <v>10130303</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133">
         <v>10130304</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134">
         <v>10130305</v>
       </c>
@@ -13715,7 +13716,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135">
         <v>10130306</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136">
         <v>10140101</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137">
         <v>10140102</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138">
         <v>10140103</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139">
         <v>10140104</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140">
         <v>10140105</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141">
         <v>10140201</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142">
         <v>10140202</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143">
         <v>10140203</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144">
         <v>10140204</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145">
         <v>10150001</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146">
         <v>10150002</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147">
         <v>10150003</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148">
         <v>10150004</v>
       </c>
@@ -14219,7 +14220,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149">
         <v>10150005</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150">
         <v>10150006</v>
       </c>
@@ -14291,7 +14292,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151">
         <v>10150007</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152">
         <v>10160001</v>
       </c>
@@ -14363,7 +14364,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153">
         <v>10160002</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154">
         <v>10160003</v>
       </c>
@@ -14435,7 +14436,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155">
         <v>10160004</v>
       </c>
@@ -14471,7 +14472,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156">
         <v>10160005</v>
       </c>
@@ -14507,7 +14508,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157">
         <v>10160006</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158">
         <v>10160007</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159">
         <v>10160008</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160">
         <v>10160009</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161">
         <v>10160011</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162">
         <v>10170101</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163">
         <v>10170102</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164">
         <v>10170103</v>
       </c>
@@ -14795,7 +14796,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165">
         <v>10170201</v>
       </c>
@@ -14831,7 +14832,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166">
         <v>10170202</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167">
         <v>10170203</v>
       </c>
@@ -14903,7 +14904,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168">
         <v>10170204</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169">
         <v>10180001</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170">
         <v>10180002</v>
       </c>
@@ -15011,7 +15012,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171">
         <v>10180003</v>
       </c>
@@ -15047,7 +15048,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172">
         <v>10180004</v>
       </c>
@@ -15083,7 +15084,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173">
         <v>10180005</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174">
         <v>10180006</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175">
         <v>10180007</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176">
         <v>10180008</v>
       </c>
@@ -15227,7 +15228,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177">
         <v>10180009</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178">
         <v>10180010</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179">
         <v>10180011</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180">
         <v>10180012</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181">
         <v>10180013</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182">
         <v>10180014</v>
       </c>
@@ -15443,7 +15444,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15515,7 +15516,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15551,7 +15552,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15587,7 +15588,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15695,7 +15696,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -15839,7 +15840,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -15911,7 +15912,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16019,7 +16020,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16055,7 +16056,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -16091,7 +16092,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201">
         <v>10200101</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202">
         <v>10200102</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203">
         <v>10200103</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204">
         <v>10200201</v>
       </c>
@@ -16235,7 +16236,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205">
         <v>10200202</v>
       </c>
@@ -16271,7 +16272,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206">
         <v>10200203</v>
       </c>
@@ -16307,7 +16308,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207">
         <v>10210001</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208">
         <v>10210002</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209">
         <v>10210003</v>
       </c>
@@ -16415,7 +16416,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210">
         <v>10210004</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211">
         <v>10210005</v>
       </c>
@@ -16487,7 +16488,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212">
         <v>10210006</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213">
         <v>10210007</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214">
         <v>10210008</v>
       </c>
@@ -16595,7 +16596,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215">
         <v>10210009</v>
       </c>
@@ -16631,7 +16632,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216">
         <v>10210010</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217">
         <v>10220001</v>
       </c>
@@ -16703,7 +16704,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218">
         <v>10220002</v>
       </c>
@@ -16739,7 +16740,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219">
         <v>10220003</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220">
         <v>10220004</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221">
         <v>10230001</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222">
         <v>10230002</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223">
         <v>10230003</v>
       </c>
@@ -16919,7 +16920,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224">
         <v>10230004</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225">
         <v>10230005</v>
       </c>
@@ -16991,7 +16992,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226">
         <v>10230006</v>
       </c>
@@ -17027,7 +17028,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227">
         <v>10230007</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228">
         <v>10240001</v>
       </c>
@@ -17099,7 +17100,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229">
         <v>10240002</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230">
         <v>10240003</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231">
         <v>10240004</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232">
         <v>10240005</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233">
         <v>10240006</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234">
         <v>10240007</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235">
         <v>10240008</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236">
         <v>10240009</v>
       </c>
@@ -17387,7 +17388,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237">
         <v>10240010</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238">
         <v>10240011</v>
       </c>
@@ -17459,7 +17460,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239">
         <v>10240012</v>
       </c>
@@ -17495,7 +17496,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240">
         <v>10240013</v>
       </c>
@@ -17531,7 +17532,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241">
         <v>10250001</v>
       </c>
@@ -17567,7 +17568,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242">
         <v>10250002</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243">
         <v>10250003</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244">
         <v>10250004</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245">
         <v>10250005</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246">
         <v>10250006</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247">
         <v>10250007</v>
       </c>
@@ -17783,7 +17784,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248">
         <v>10250008</v>
       </c>
@@ -17819,7 +17820,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249">
         <v>10250009</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250">
         <v>10250010</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251">
         <v>10250011</v>
       </c>
@@ -17927,7 +17928,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252">
         <v>10250012</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253">
         <v>10250013</v>
       </c>
@@ -17999,7 +18000,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254">
         <v>10250014</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255">
         <v>10250015</v>
       </c>
@@ -18071,7 +18072,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256">
         <v>10250016</v>
       </c>
@@ -18107,7 +18108,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257">
         <v>10250017</v>
       </c>
@@ -18143,7 +18144,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258">
         <v>10260001</v>
       </c>
@@ -18179,7 +18180,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259">
         <v>10260002</v>
       </c>
@@ -18215,7 +18216,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260">
         <v>10260003</v>
       </c>
@@ -18251,7 +18252,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261">
         <v>10260004</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262">
         <v>10260005</v>
       </c>
@@ -18323,7 +18324,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263">
         <v>10260006</v>
       </c>
@@ -18359,7 +18360,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264">
         <v>10260007</v>
       </c>
@@ -18395,7 +18396,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265">
         <v>10260008</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266">
         <v>10260009</v>
       </c>
@@ -18467,7 +18468,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267">
         <v>10260010</v>
       </c>
@@ -18503,7 +18504,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268">
         <v>10260011</v>
       </c>
@@ -18539,7 +18540,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269">
         <v>10260012</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270">
         <v>10260013</v>
       </c>
@@ -18611,7 +18612,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271">
         <v>10260014</v>
       </c>
@@ -18647,7 +18648,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272">
         <v>10260015</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273">
         <v>10270101</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274">
         <v>10270102</v>
       </c>
@@ -18755,7 +18756,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275">
         <v>10270103</v>
       </c>
@@ -18791,7 +18792,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276">
         <v>10270104</v>
       </c>
@@ -18827,7 +18828,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277">
         <v>10270201</v>
       </c>
@@ -18863,7 +18864,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278">
         <v>10270202</v>
       </c>
@@ -18899,7 +18900,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279">
         <v>10270203</v>
       </c>
@@ -18935,7 +18936,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280">
         <v>10270204</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281">
         <v>10270205</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282">
         <v>10270206</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283">
         <v>10270207</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284">
         <v>10280101</v>
       </c>
@@ -19115,7 +19116,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285">
         <v>10280102</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286">
         <v>10280103</v>
       </c>
@@ -19187,7 +19188,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287">
         <v>10280201</v>
       </c>
@@ -19223,7 +19224,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288">
         <v>10280202</v>
       </c>
@@ -19259,7 +19260,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289">
         <v>10280203</v>
       </c>
@@ -19799,7 +19800,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304">
         <v>10300101</v>
       </c>
@@ -19835,7 +19836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305">
         <v>10300102</v>
       </c>
@@ -19871,7 +19872,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306">
         <v>10300103</v>
       </c>
@@ -19907,7 +19908,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307">
         <v>10300104</v>
       </c>
@@ -19943,7 +19944,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308">
         <v>10300200</v>
       </c>
@@ -19981,6 +19982,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1029"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A241:K257">
       <sortCondition ref="A1:A308"/>
     </sortState>

--- a/HUC_08_Inventory.xlsx
+++ b/HUC_08_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA_Percentile_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6E493-DED5-9849-99A6-507C2BCE7EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A53AC5-98B9-364B-BBC3-A47985E0EE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1520" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="24360" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUC08_MRB_LUT" sheetId="4" r:id="rId1"/>
@@ -8871,11 +8871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A82313-A821-9C41-A6EE-3DE4378C62D7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G303" sqref="G303"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="171" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8928,7 +8927,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10020001</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>10020002</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>10020003</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>10020004</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>10020005</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>10020006</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>10020007</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10020008</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>10030101</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10030102</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10030103</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10030104</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10030105</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>10030201</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>10030202</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>10030203</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10030204</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>10030205</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>10040101</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>10040102</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>10040103</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>10040104</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>10040105</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>10040106</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>10040201</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>10040202</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>10040203</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>10040204</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>10040205</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>10050001</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>10050002</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>10050003</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>10050004</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>10050005</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>10050006</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>10050007</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>10050008</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>10050009</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>10050010</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>10050011</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>10050012</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>10050013</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>10050014</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>10050015</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>10050016</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>10060001</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>10060002</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>10060003</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>10060004</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>10060005</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>10060006</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>10060007</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>10070001</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>10070002</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>10070003</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>10070004</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>10070005</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>10070006</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>10070007</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>10070008</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>10080001</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>10080002</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>10080003</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>10080004</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>10080005</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>10080006</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>10080007</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>10080008</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>10080009</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>10080010</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>10080011</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>10080012</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>10080013</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>10080014</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>10080015</v>
       </c>
@@ -11628,7 +11627,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>10080016</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>10090101</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>10090102</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>10090201</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>10090202</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>10090203</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>10090204</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>10090205</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>10090206</v>
       </c>
@@ -11952,7 +11951,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>10090207</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>10090208</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>10090209</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>10090210</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>10100001</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>10100002</v>
       </c>
@@ -12168,7 +12167,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>10100003</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>10100004</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>10100005</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>10110101</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>10110102</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>10110201</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>10110202</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>10110203</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>10110204</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>10110205</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>10120101</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>10120102</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>10120103</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>10120104</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>10120105</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>10120106</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>10120107</v>
       </c>
@@ -12780,7 +12779,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>10120108</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>10120109</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>10120110</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>10120111</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>10120112</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>10120113</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>10120201</v>
       </c>
@@ -13032,7 +13031,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>10120202</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>10120203</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>10130101</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>10130102</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>10130103</v>
       </c>
@@ -13212,7 +13211,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>10130104</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>10130105</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>10130106</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>10130201</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>10130202</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>10130203</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>10130204</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>10130205</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>10130206</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>10130301</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>10130302</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>10130303</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>10130304</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>10130305</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>10130306</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>10140101</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>10140102</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>10140103</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>10140104</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>10140105</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>10140201</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>10140202</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>10140203</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>10140204</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>10150001</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>10150002</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>10150003</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>10150004</v>
       </c>
@@ -14220,7 +14219,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>10150005</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>10150006</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>10150007</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>10160001</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>10160002</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>10160003</v>
       </c>
@@ -14436,7 +14435,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>10160004</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>10160005</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>10160006</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>10160007</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>10160008</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>10160009</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>10160011</v>
       </c>
@@ -14688,7 +14687,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>10170101</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>10170102</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>10170103</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>10170201</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>10170202</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>10170203</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>10170204</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>10180001</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>10180002</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>10180003</v>
       </c>
@@ -15048,7 +15047,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>10180004</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>10180005</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>10180006</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>10180007</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>10180008</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>10180009</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>10180010</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>10180011</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>10180012</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>10180013</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>10180014</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>10190001</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>10190002</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>10190003</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>10190004</v>
       </c>
@@ -15588,7 +15587,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>10190005</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>10190006</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>10190007</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>10190008</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>10190009</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>10190010</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>10190011</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>10190012</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>10190013</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>10190014</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>10190015</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>10190016</v>
       </c>
@@ -16020,7 +16019,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>10190017</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>10190018</v>
       </c>
@@ -16092,7 +16091,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>10200101</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>10200102</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>10200103</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>10200201</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>10200202</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>10200203</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>10210001</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>10210002</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>10210003</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>10210004</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>10210005</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>10210006</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11">
       <c r="A213">
         <v>10210007</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11">
       <c r="A214">
         <v>10210008</v>
       </c>
@@ -16596,7 +16595,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>10210009</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>10210010</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11">
       <c r="A217">
         <v>10220001</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>10220002</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11">
       <c r="A219">
         <v>10220003</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>10220004</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>10230001</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11">
       <c r="A222">
         <v>10230002</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11">
       <c r="A223">
         <v>10230003</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>10230004</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>10230005</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>10230006</v>
       </c>
@@ -17028,7 +17027,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>10230007</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>10240001</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>10240002</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>10240003</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231">
         <v>10240004</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>10240005</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>10240006</v>
       </c>
@@ -17280,7 +17279,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>10240007</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>10240008</v>
       </c>
@@ -17352,7 +17351,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>10240009</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>10240010</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>10240011</v>
       </c>
@@ -17460,7 +17459,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>10240012</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>10240013</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>10250001</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>10250002</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>10250003</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>10250004</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>10250005</v>
       </c>
@@ -17712,7 +17711,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>10250006</v>
       </c>
@@ -17748,7 +17747,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>10250007</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>10250008</v>
       </c>
@@ -17820,7 +17819,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>10250009</v>
       </c>
@@ -17856,7 +17855,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>10250010</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>10250011</v>
       </c>
@@ -17928,7 +17927,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>10250012</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>10250013</v>
       </c>
@@ -18000,7 +17999,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>10250014</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>10250015</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>10250016</v>
       </c>
@@ -18108,7 +18107,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>10250017</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>10260001</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>10260002</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>10260003</v>
       </c>
@@ -18252,7 +18251,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>10260004</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>10260005</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>10260006</v>
       </c>
@@ -18360,7 +18359,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>10260007</v>
       </c>
@@ -18396,7 +18395,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>10260008</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>10260009</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>10260010</v>
       </c>
@@ -18504,7 +18503,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>10260011</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>10260012</v>
       </c>
@@ -18576,7 +18575,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>10260013</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>10260014</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>10260015</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>10270101</v>
       </c>
@@ -18720,7 +18719,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>10270102</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>10270103</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>10270104</v>
       </c>
@@ -18828,7 +18827,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>10270201</v>
       </c>
@@ -18864,7 +18863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>10270202</v>
       </c>
@@ -18900,7 +18899,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>10270203</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>10270204</v>
       </c>
@@ -18972,7 +18971,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>10270205</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>10270206</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>10270207</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>10280101</v>
       </c>
@@ -19116,7 +19115,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>10280102</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>10280103</v>
       </c>
@@ -19188,7 +19187,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>10280201</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>10280202</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>10280203</v>
       </c>
@@ -19800,7 +19799,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>10300101</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>10300102</v>
       </c>
@@ -19872,7 +19871,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>10300103</v>
       </c>
@@ -19908,7 +19907,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>10300104</v>
       </c>
@@ -19944,7 +19943,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>10300200</v>
       </c>
@@ -19982,11 +19981,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K308" xr:uid="{AAB6001D-3482-FB4E-9076-315C65BCD595}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1029"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A241:K257">
       <sortCondition ref="A1:A308"/>
     </sortState>
